--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,26 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katy\faculta\AN3\sem2\VVs\Labb\VVSS\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E0C96-7021-4150-A544-287FBF2FB18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="6" r:id="rId2"/>
+    <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+  <si>
+    <t>Document  Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review date: </t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Crt. No.</t>
+  </si>
+  <si>
+    <t>Checked Item</t>
+  </si>
+  <si>
+    <t>Doc. page/line</t>
+  </si>
+  <si>
+    <t>Comments/ improvements</t>
+  </si>
+  <si>
+    <t>Effort to review document (hours):</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Name: </t>
+  </si>
+  <si>
+    <t>Popescu Ionel</t>
+  </si>
+  <si>
+    <t>Georgescu Anca</t>
+  </si>
+  <si>
+    <t>Firicescu George</t>
+  </si>
+  <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
+  </si>
+  <si>
+    <t>Coding Document</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Tool used:</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>After/Argument</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Munteanu Ecaterina</t>
+  </si>
+  <si>
+    <t>235/1</t>
+  </si>
+  <si>
+    <t>Muresan Sabina-Petruta</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +166,166 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,14 +335,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,9 +426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,44 +436,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +503,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -190,153 +547,1395 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="21" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B25" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katy\faculta\AN3\sem2\VVs\Labb\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531BCA99-F556-49CF-A196-BAB61CF9C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70287A-66F1-4645-84F2-5E681CAEE24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1590" windowWidth="14415" windowHeight="11385" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -173,12 +173,6 @@
     <t>In fisierul de intrare ar mai trebui sa existe un camp &lt;cantitate_valabila&gt;, pentru gestionarea cazurilor in care se termina anumite pizza</t>
   </si>
   <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>Functionalitate implementata,dar nu este mentionata in cerinte</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -186,19 +180,74 @@
   </si>
   <si>
     <t>linia 4</t>
+  </si>
+  <si>
+    <t>MainGUIController</t>
+  </si>
+  <si>
+    <t>Nu sunt validate datele comenzii inainte de plasarea ei, iar erorile ce pot aparea nu sunt gestionate</t>
+  </si>
+  <si>
+    <t>PaymentAlert</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>PizzaService</t>
+  </si>
+  <si>
+    <t>PizzaService gestioneaza plata comenzii, iar ddenumirea nu este specifica</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
+  </si>
+  <si>
+    <t>Nu exista o relatie intre KitchenGUI si KitchenGUIController</t>
+  </si>
+  <si>
+    <t>KitchenGUI, KitchenGUIController</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>8 metode de gestionare a meselor in UI, in loc de unsa singura generica</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Existenta a 2 metode de extragere a numarului mesei in doua tipuri: String si int, cand logic ar fi doar o metoda ce extrage in int</t>
+  </si>
+  <si>
+    <t>While infinit care se opreste doar in caz de exceptie ( nu se produce tot timpul si nu avem siguranta ca se opreste)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,77 +433,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,19 +838,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -813,10 +863,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -824,17 +874,17 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -842,10 +892,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -857,15 +907,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -931,28 +981,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1098,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1123,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,19 +1142,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1126,31 +1167,39 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1162,15 +1211,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1186,31 +1235,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1219,7 +1286,6 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1343,7 +1409,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1366,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,19 +1455,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1412,31 +1480,39 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1448,15 +1524,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1472,31 +1548,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1665,7 +1759,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1710,19 +1806,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1746,8 +1842,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1762,8 +1858,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1775,8 +1871,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2006,11 +2102,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katy\faculta\AN3\sem2\VVs\Labb\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E70287A-66F1-4645-84F2-5E681CAEE24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B980E-2F0D-432D-9A35-4AC4AA25B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -215,19 +215,28 @@
     <t>A10</t>
   </si>
   <si>
-    <t>8 metode de gestionare a meselor in UI, in loc de unsa singura generica</t>
-  </si>
-  <si>
     <t>C01</t>
   </si>
   <si>
     <t>C03</t>
   </si>
   <si>
-    <t>Existenta a 2 metode de extragere a numarului mesei in doua tipuri: String si int, cand logic ar fi doar o metoda ce extrage in int</t>
-  </si>
-  <si>
     <t>While infinit care se opreste doar in caz de exceptie ( nu se produce tot timpul si nu avem siguranta ca se opreste)</t>
+  </si>
+  <si>
+    <t>8 clase OrdersGUI de gestionare a comenzilor in UI, in loc de a fi generate</t>
+  </si>
+  <si>
+    <t>Existenta a 2 atribute de extragere a numarului mesei in doua tipuri: String si int, cand logic ar fi doar o metoda ce extrage in int</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>OrdersGUIController</t>
+  </si>
+  <si>
+    <t>TableColumn folosit pentru atributul tableMenuItem 'raw' fara a mentiona tipul de data din coloana</t>
   </si>
 </sst>
 </file>
@@ -465,6 +474,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -507,7 +517,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,19 +847,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -863,7 +872,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="22" t="s">
@@ -874,10 +883,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -892,10 +901,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -907,15 +916,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1142,19 +1151,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1167,7 +1176,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="22" t="s">
@@ -1178,10 +1187,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1196,10 +1205,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1211,15 +1220,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1434,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,19 +1464,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1480,7 +1489,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="22" t="s">
@@ -1491,10 +1500,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1509,10 +1518,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1524,15 +1533,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1553,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1568,13 +1577,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1583,23 +1592,29 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1806,19 +1821,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1842,8 +1857,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1858,8 +1873,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1871,8 +1886,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,11 +2117,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katy\faculta\AN3\sem2\VVs\Labb\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B980E-2F0D-432D-9A35-4AC4AA25B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD16B4-E02D-44C0-8049-57BA89390FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -218,12 +218,6 @@
     <t>C01</t>
   </si>
   <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>While infinit care se opreste doar in caz de exceptie ( nu se produce tot timpul si nu avem siguranta ca se opreste)</t>
-  </si>
-  <si>
     <t>8 clase OrdersGUI de gestionare a comenzilor in UI, in loc de a fi generate</t>
   </si>
   <si>
@@ -237,19 +231,116 @@
   </si>
   <si>
     <t>TableColumn folosit pentru atributul tableMenuItem 'raw' fara a mentiona tipul de data din coloana</t>
+  </si>
+  <si>
+    <t>KitchenGUIController/22</t>
+  </si>
+  <si>
+    <t>Remove this "String" constructor</t>
+  </si>
+  <si>
+    <t>private String extractedTableNumberString = new String();</t>
+  </si>
+  <si>
+    <t>private String extractedTableNumberString;</t>
+  </si>
+  <si>
+    <t>Make the enclosing method "static" or remove this set.</t>
+  </si>
+  <si>
+    <t>public void setTotalAmount(double totalAmount) {
+        this.totalAmount = totalAmount;
+    }</t>
+  </si>
+  <si>
+    <t>public static void setTotalAmount(double total) {
+        totalAmount = total;
+    }</t>
+  </si>
+  <si>
+    <t>Use isEmpty() to check whether the collection is empty or not.</t>
+  </si>
+  <si>
+    <t>PizzaService/35</t>
+  </si>
+  <si>
+    <t>if ((l==null) ||(l.size()==0)) return total;</t>
+  </si>
+  <si>
+    <t>if ((l==null) || l.isEmpty()) return total;</t>
+  </si>
+  <si>
+    <t>OrdersGUIController/52</t>
+  </si>
+  <si>
+    <t>Use try-with-resources or close this "BufferedReader" in a "finally" clause.</t>
+  </si>
+  <si>
+    <t>MenuRepository/22-35</t>
+  </si>
+  <si>
+    <t>try {
+            br = new BufferedReader(new FileReader(file));
+            String line = null;
+            while((line=br.readLine())!=null){
+                MenuDataModel menuItem=getMenuItem(line);
+                listMenu.add(menuItem);
+            }
+            br.close();
+        } catch (FileNotFoundException e) {
+            e.printStackTrace();
+        } catch (IOException e) {
+            e.printStackTrace();
+        }</t>
+  </si>
+  <si>
+    <t>try {
+            br = new BufferedReader(new FileReader(file));
+            String line = null;
+            while((line=br.readLine())!=null){
+                MenuDataModel menuItem=getMenuItem(line);
+                listMenu.add(menuItem);
+            }
+            br.close();
+        } catch (FileNotFoundException e) {
+            e.printStackTrace();
+        } catch (IOException e) {
+            e.printStackTrace();
+        }finally {
+            System.out.println("Citirea s-a terminat");
+        }</t>
+  </si>
+  <si>
+    <t>Call "result.isPresent()" before accessing the value.</t>
+  </si>
+  <si>
+    <t>Main/43</t>
+  </si>
+  <si>
+    <t>if (result.get() == ButtonType.YES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (result.isPresent() &amp;&amp; result.get() == ButtonType.YES)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,81 +533,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,19 +942,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -883,10 +978,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -901,10 +996,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -916,15 +1011,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1151,19 +1246,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1187,10 +1282,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1205,10 +1300,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1220,15 +1315,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1444,7 +1539,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,19 +1559,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1500,10 +1595,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1518,10 +1613,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1533,15 +1628,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1568,7 +1663,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1583,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1592,28 +1687,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1799,18 +1885,18 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1821,19 +1907,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1857,8 +1943,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1873,8 +1959,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1886,8 +1972,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1907,54 +1993,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2117,11 +2243,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katy\faculta\AN3\sem2\VVs\Labb\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD16B4-E02D-44C0-8049-57BA89390FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB624FC-BFCB-470D-A33F-747CD8225103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>Muresan Sabina-Petruta</t>
-  </si>
-  <si>
-    <t>L4-5</t>
-  </si>
-  <si>
-    <t>Nu este precizat ca inainte de a comanda sa fie valabil tipul de pizza, la fel si cantitatea</t>
   </si>
   <si>
     <t>R01</t>
@@ -569,6 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -611,7 +606,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,40 +915,40 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -963,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -974,14 +968,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -992,36 +986,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1043,19 +1037,19 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
@@ -1064,49 +1058,40 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1115,7 +1100,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1124,7 +1109,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1133,7 +1118,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1142,7 +1127,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1151,7 +1136,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1160,7 +1145,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1169,7 +1154,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1178,7 +1163,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1187,7 +1172,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1196,13 +1181,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1226,39 +1211,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="118" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1267,7 +1252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1278,14 +1263,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1296,36 +1281,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1339,51 +1324,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1391,7 +1376,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1400,7 +1385,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1409,7 +1394,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1418,7 +1403,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1427,7 +1412,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1436,7 +1421,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1445,7 +1430,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1454,7 +1439,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1463,7 +1448,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1472,7 +1457,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1481,7 +1466,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1490,7 +1475,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1499,7 +1484,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1508,13 +1493,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1538,40 +1523,40 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="130" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1580,7 +1565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1591,14 +1576,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1609,36 +1594,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="37"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1652,57 +1637,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1711,7 +1696,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1720,7 +1705,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1729,7 +1714,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1738,7 +1723,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1747,7 +1732,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1756,7 +1741,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1765,7 +1750,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1774,7 +1759,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1783,7 +1768,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1792,7 +1777,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1801,7 +1786,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1810,7 +1795,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1819,7 +1804,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1828,7 +1813,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1837,7 +1822,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1846,7 +1831,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1855,13 +1840,13 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1885,41 +1870,41 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="23" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1928,7 +1913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1939,12 +1924,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1955,28 +1940,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1993,96 +1978,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2092,7 +2077,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2102,7 +2087,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2112,7 +2097,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2122,7 +2107,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2132,7 +2117,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2142,7 +2127,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2152,7 +2137,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2162,7 +2147,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2172,7 +2157,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2182,7 +2167,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2192,7 +2177,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2202,7 +2187,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2212,7 +2197,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2222,7 +2207,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2232,7 +2217,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2242,12 +2227,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="37" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
